--- a/电力系统脆弱性研究/指标及权重分配/综合结果排序.xlsx
+++ b/电力系统脆弱性研究/指标及权重分配/综合结果排序.xlsx
@@ -97,11 +97,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -111,7 +111,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$29</c:f>
+              <c:f>Sheet1!$F$1:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -207,103 +207,103 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$29</c:f>
+              <c:f>Sheet1!$G$1:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.79600784499999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76378612499999998</c:v>
+                  <c:v>0.95871707920625615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59272944400000005</c:v>
+                  <c:v>0.73955685396180293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52332478400000004</c:v>
+                  <c:v>0.65063462754134116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51432083699999998</c:v>
+                  <c:v>0.63909864402363736</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47850342400000001</c:v>
+                  <c:v>0.59320887079254325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.429573914</c:v>
+                  <c:v>0.53051969449138059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.408605408</c:v>
+                  <c:v>0.50365454972688195</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35493365100000002</c:v>
+                  <c:v>0.43488953987973328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34231941199999999</c:v>
+                  <c:v>0.41872799948057537</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29944386200000001</c:v>
+                  <c:v>0.3637952418674435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27665505299999998</c:v>
+                  <c:v>0.33459789930066686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26507747599999998</c:v>
+                  <c:v>0.31976454483434819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.240900161</c:v>
+                  <c:v>0.28878822885399724</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.220875768</c:v>
+                  <c:v>0.26313269494203351</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.215393377</c:v>
+                  <c:v>0.25610857849470131</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21524513100000001</c:v>
+                  <c:v>0.2559186436347376</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21431428399999999</c:v>
+                  <c:v>0.25472602936796057</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.205750038</c:v>
+                  <c:v>0.24375339695491319</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19493793500000001</c:v>
+                  <c:v>0.22990077854215313</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.176920876</c:v>
+                  <c:v>0.20681706917985931</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13207627999999999</c:v>
+                  <c:v>0.14936154214109654</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.116736454</c:v>
+                  <c:v>0.12970794134797278</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.0414907000000003E-2</c:v>
+                  <c:v>9.5984405175173634E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.4132856000000006E-2</c:v>
+                  <c:v>8.7935753090329652E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.2382556999999995E-2</c:v>
+                  <c:v>8.5693245397308618E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.1024125000000002E-2</c:v>
+                  <c:v>8.3952803215460892E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.6675353000000007E-2</c:v>
+                  <c:v>6.5568954744197119E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5498148E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5614-499C-9314-9C680CA7749A}"/>
+              <c16:uniqueId val="{00000000-5163-40A7-A294-7DAE39F3A1EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -319,6 +319,235 @@
         <c:overlap val="-27"/>
         <c:axId val="1092243280"/>
         <c:axId val="1092244944"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1:$F$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="29"/>
+                      <c:pt idx="0">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1:$F$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="29"/>
+                      <c:pt idx="0">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>12</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5614-499C-9314-9C680CA7749A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="1092243280"/>
@@ -451,6 +680,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -511,7 +754,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1137,15 +1380,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1431,244 +1674,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>16</v>
       </c>
       <c r="B1">
         <v>0.79600784499999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <f>(B1-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0.79600784499999999</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>29</v>
       </c>
       <c r="B2">
         <v>0.76378612499999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>(B2-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.95871707920625615</v>
+      </c>
+      <c r="D2">
+        <v>0.76378612499999998</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>0.95871707920625615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3">
         <v>0.59272944400000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>(B3-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.73955685396180293</v>
+      </c>
+      <c r="D3">
+        <v>0.59272944400000005</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>0.73955685396180293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.52332478400000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>(B4-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.65063462754134116</v>
+      </c>
+      <c r="D4">
+        <v>0.52332478400000004</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0.65063462754134116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>26</v>
       </c>
       <c r="B5">
         <v>0.51432083699999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>(B5-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.63909864402363736</v>
+      </c>
+      <c r="D5">
+        <v>0.51432083699999998</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>0.63909864402363736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
       <c r="B6">
         <v>0.47850342400000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>(B6-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.59320887079254325</v>
+      </c>
+      <c r="D6">
+        <v>0.47850342400000001</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>0.59320887079254325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>0.429573914</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>(B7-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.53051969449138059</v>
+      </c>
+      <c r="D7">
+        <v>0.429573914</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0.53051969449138059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
       <c r="B8">
         <v>0.408605408</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>(B8-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.50365454972688195</v>
+      </c>
+      <c r="D8">
+        <v>0.408605408</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>0.50365454972688195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9">
         <v>0.35493365100000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>(B9-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.43488953987973328</v>
+      </c>
+      <c r="D9">
+        <v>0.35493365100000002</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0.43488953987973328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
       <c r="B10">
         <v>0.34231941199999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>(B10-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.41872799948057537</v>
+      </c>
+      <c r="D10">
+        <v>0.34231941199999999</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>0.41872799948057537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
       <c r="B11">
         <v>0.29944386200000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>(B11-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.3637952418674435</v>
+      </c>
+      <c r="D11">
+        <v>0.29944386200000001</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>0.3637952418674435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
         <v>0.27665505299999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>(B12-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.33459789930066686</v>
+      </c>
+      <c r="D12">
+        <v>0.27665505299999998</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0.33459789930066686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>27</v>
       </c>
       <c r="B13">
         <v>0.26507747599999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>(B13-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.31976454483434819</v>
+      </c>
+      <c r="D13">
+        <v>0.26507747599999998</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>0.31976454483434819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14">
         <v>0.240900161</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>(B14-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.28878822885399724</v>
+      </c>
+      <c r="D14">
+        <v>0.240900161</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0.28878822885399724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15">
         <v>0.220875768</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>(B15-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.26313269494203351</v>
+      </c>
+      <c r="D15">
+        <v>0.220875768</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0.26313269494203351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
         <v>0.215393377</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>(B16-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.25610857849470131</v>
+      </c>
+      <c r="D16">
+        <v>0.215393377</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>0.25610857849470131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
       <c r="B17">
         <v>0.21524513100000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>(B17-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.2559186436347376</v>
+      </c>
+      <c r="D17">
+        <v>0.21524513100000001</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>0.2559186436347376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
       <c r="B18">
         <v>0.21431428399999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>(B18-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.25472602936796057</v>
+      </c>
+      <c r="D18">
+        <v>0.21431428399999999</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>0.25472602936796057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>0.205750038</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>(B19-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.24375339695491319</v>
+      </c>
+      <c r="D19">
+        <v>0.205750038</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0.24375339695491319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20">
         <v>0.19493793500000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>(B20-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.22990077854215313</v>
+      </c>
+      <c r="D20">
+        <v>0.19493793500000001</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>0.22990077854215313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0.176920876</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>(B21-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.20681706917985931</v>
+      </c>
+      <c r="D21">
+        <v>0.176920876</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0.20681706917985931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
         <v>0.13207627999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>(B22-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.14936154214109654</v>
+      </c>
+      <c r="D22">
+        <v>0.13207627999999999</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>0.14936154214109654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>0.116736454</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>(B23-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0.12970794134797278</v>
+      </c>
+      <c r="D23">
+        <v>0.116736454</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.12970794134797278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
       <c r="B24">
         <v>9.0414907000000003E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>(B24-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>9.5984405175173634E-2</v>
+      </c>
+      <c r="D24">
+        <v>9.0414907000000003E-2</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>9.5984405175173634E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25">
         <v>8.4132856000000006E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>(B25-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>8.7935753090329652E-2</v>
+      </c>
+      <c r="D25">
+        <v>8.4132856000000006E-2</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>8.7935753090329652E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
       <c r="B26">
         <v>8.2382556999999995E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>(B26-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>8.5693245397308618E-2</v>
+      </c>
+      <c r="D26">
+        <v>8.2382556999999995E-2</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>8.5693245397308618E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27">
         <v>8.1024125000000002E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>(B27-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>8.3952803215460892E-2</v>
+      </c>
+      <c r="D27">
+        <v>8.1024125000000002E-2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>8.3952803215460892E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28">
         <v>6.6675353000000007E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>(B28-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>6.5568954744197119E-2</v>
+      </c>
+      <c r="D28">
+        <v>6.6675353000000007E-2</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>6.5568954744197119E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
       <c r="B29">
         <v>1.5498148E-2</v>
+      </c>
+      <c r="C29">
+        <f>(B29-MIN($B$1:$B$29))/(MAX($B$1:$B$29)-MIN($B$1:$B$29))</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1.5498148E-2</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
